--- a/data/trans_orig/P57_AF_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>278531</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>257663</v>
+        <v>258670</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299646</v>
+        <v>302177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5914357018485489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5471232512660217</v>
+        <v>0.5492628905204533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6362708436584474</v>
+        <v>0.6416442425569707</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>158</v>
@@ -765,19 +765,19 @@
         <v>164107</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146726</v>
+        <v>146957</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182926</v>
+        <v>181519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5351080979213647</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4784326636509965</v>
+        <v>0.4791856026649013</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5964709739748825</v>
+        <v>0.5918854139851918</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>424</v>
@@ -786,19 +786,19 @@
         <v>442638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>414725</v>
+        <v>415729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>472552</v>
+        <v>469975</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5692210662207315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5333247800978478</v>
+        <v>0.534615853563966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6076892135889086</v>
+        <v>0.6043750599552715</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>192410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>171295</v>
+        <v>168764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213278</v>
+        <v>212271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4085642981514511</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3637291563415527</v>
+        <v>0.3583557574430294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4528767487339784</v>
+        <v>0.4507371094795475</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -836,19 +836,19 @@
         <v>142573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123754</v>
+        <v>125161</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>159954</v>
+        <v>159723</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4648919020786352</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4035290260251176</v>
+        <v>0.4081145860148082</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5215673363490035</v>
+        <v>0.5208143973350987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>327</v>
@@ -857,19 +857,19 @@
         <v>334983</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>305069</v>
+        <v>307646</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>362896</v>
+        <v>361892</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4307789337792685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3923107864110915</v>
+        <v>0.3956249400447284</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4666752199021525</v>
+        <v>0.4653841464360338</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>196777</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>177180</v>
+        <v>177511</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216182</v>
+        <v>217075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5362740978302484</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4828648774218604</v>
+        <v>0.4837680655114525</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5891582816196791</v>
+        <v>0.591591968797637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>215</v>
@@ -982,19 +982,19 @@
         <v>220529</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>201625</v>
+        <v>202972</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>239153</v>
+        <v>239008</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5930343457513793</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5421988661805391</v>
+        <v>0.5458211262773944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6431181057416273</v>
+        <v>0.6427274590007058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>406</v>
@@ -1003,19 +1003,19 @@
         <v>417306</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>387073</v>
+        <v>389574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443305</v>
+        <v>445291</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5648436300122203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5239217151583987</v>
+        <v>0.5273071347462656</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6000343118910914</v>
+        <v>0.6027223331154545</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>170157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150752</v>
+        <v>149859</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>189754</v>
+        <v>189423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4637259021697517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.410841718380321</v>
+        <v>0.408408031202363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5171351225781395</v>
+        <v>0.5162319344885474</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -1053,19 +1053,19 @@
         <v>151336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132712</v>
+        <v>132857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170240</v>
+        <v>168893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4069656542486207</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3568818942583726</v>
+        <v>0.3572725409992942</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4578011338194608</v>
+        <v>0.4541788737226059</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>307</v>
@@ -1074,19 +1074,19 @@
         <v>321493</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>295494</v>
+        <v>293508</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>351726</v>
+        <v>349225</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4351563699877797</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3999656881089086</v>
+        <v>0.3972776668845454</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4760782848416013</v>
+        <v>0.4726928652537344</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>354133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>332280</v>
+        <v>330249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>376607</v>
+        <v>376129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6539300676583227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6135785785117568</v>
+        <v>0.6098269219568876</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6954311994845088</v>
+        <v>0.6945486253585575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -1199,19 +1199,19 @@
         <v>107336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94111</v>
+        <v>94406</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118413</v>
+        <v>119073</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6434926927888774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5642057695043295</v>
+        <v>0.5659785305787781</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7099031400464021</v>
+        <v>0.7138554280228826</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>453</v>
@@ -1220,19 +1220,19 @@
         <v>461468</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>435886</v>
+        <v>437282</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>484283</v>
+        <v>486527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6514722684137608</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6153570594439117</v>
+        <v>0.6173279386701948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6836803828194242</v>
+        <v>0.6868485484668452</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>187412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164938</v>
+        <v>165416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>209265</v>
+        <v>211296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3460699323416772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3045688005154908</v>
+        <v>0.3054513746414425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3864214214882432</v>
+        <v>0.3901730780431124</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -1270,19 +1270,19 @@
         <v>59466</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48389</v>
+        <v>47729</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>72691</v>
+        <v>72396</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3565073072111226</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.290096859953598</v>
+        <v>0.2861445719771166</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4357942304956705</v>
+        <v>0.4340214694212219</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>241</v>
@@ -1291,19 +1291,19 @@
         <v>246879</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>224064</v>
+        <v>221820</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272461</v>
+        <v>271065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3485277315862392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3163196171805758</v>
+        <v>0.3131514515331548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3846429405560883</v>
+        <v>0.3826720613298052</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>791288</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>753645</v>
+        <v>760039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>823646</v>
+        <v>827431</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6389941113775599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6085958035683607</v>
+        <v>0.6137594206788219</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6651243294077998</v>
+        <v>0.6681807429233976</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>451</v>
@@ -1416,19 +1416,19 @@
         <v>465713</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>440804</v>
+        <v>440831</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>491097</v>
+        <v>492114</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6519986123999392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6171257237235493</v>
+        <v>0.6171636608584653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6875368818203191</v>
+        <v>0.6889597695087206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1239</v>
@@ -1437,19 +1437,19 @@
         <v>1257002</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1213914</v>
+        <v>1212676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1300238</v>
+        <v>1299130</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6437512712899632</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6216845275942662</v>
+        <v>0.6210504636457397</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6658938857943064</v>
+        <v>0.6653266234376813</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>447046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>414688</v>
+        <v>410903</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>484689</v>
+        <v>478295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.36100588862244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3348756705922</v>
+        <v>0.3318192570766023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3914041964316392</v>
+        <v>0.3862405793211776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>243</v>
@@ -1487,19 +1487,19 @@
         <v>248572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223188</v>
+        <v>222171</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>273481</v>
+        <v>273454</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3480013876000609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.312463118179681</v>
+        <v>0.3110402304912794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3828742762764507</v>
+        <v>0.3828363391415349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>679</v>
@@ -1508,19 +1508,19 @@
         <v>695618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>652382</v>
+        <v>653490</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>738706</v>
+        <v>739944</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3562487287100368</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3341061142056936</v>
+        <v>0.3346733765623187</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3783154724057338</v>
+        <v>0.3789495363542605</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>220251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201736</v>
+        <v>201575</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>237432</v>
+        <v>237936</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6282910090026006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5754759899050741</v>
+        <v>0.5750177597554572</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6773044034472426</v>
+        <v>0.6787396598672305</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -1633,19 +1633,19 @@
         <v>377711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>356317</v>
+        <v>355828</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>401646</v>
+        <v>400207</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6652679897514782</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6275865877273461</v>
+        <v>0.62672598982057</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7074256622244864</v>
+        <v>0.7048905827647486</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>573</v>
@@ -1654,19 +1654,19 @@
         <v>597961</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>566173</v>
+        <v>570246</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>624213</v>
+        <v>628689</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6511524466338965</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.61653668573957</v>
+        <v>0.6209719346700048</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6797396805853619</v>
+        <v>0.6846141739017075</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>130304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>113123</v>
+        <v>112619</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>148819</v>
+        <v>148980</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3717089909973994</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3226955965527573</v>
+        <v>0.3212603401327696</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.424524010094926</v>
+        <v>0.4249822402445428</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -1704,19 +1704,19 @@
         <v>190046</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166111</v>
+        <v>167550</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211440</v>
+        <v>211929</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3347320102485219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2925743377755136</v>
+        <v>0.2951094172352514</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3724134122726538</v>
+        <v>0.37327401017943</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>305</v>
@@ -1725,19 +1725,19 @@
         <v>320351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>294099</v>
+        <v>289623</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>352139</v>
+        <v>348066</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3488475533661035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3202603194146381</v>
+        <v>0.3153858260982922</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.38346331426043</v>
+        <v>0.3790280653299951</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>142008</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>124922</v>
+        <v>125079</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156636</v>
+        <v>158980</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4775578451040825</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4201000205726347</v>
+        <v>0.4206280822345044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5267503029325571</v>
+        <v>0.534631135286352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>722</v>
@@ -1850,19 +1850,19 @@
         <v>731912</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>697429</v>
+        <v>698499</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>764147</v>
+        <v>765389</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5861109184889982</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5584971948487694</v>
+        <v>0.559353714818445</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6119242894179212</v>
+        <v>0.6129188472367452</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>870</v>
@@ -1871,19 +1871,19 @@
         <v>873920</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>839087</v>
+        <v>834082</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>914905</v>
+        <v>910815</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5652330824152415</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5427039609138613</v>
+        <v>0.5394665181986018</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5917417178754569</v>
+        <v>0.5890957608722449</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>155355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>140727</v>
+        <v>138383</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>172441</v>
+        <v>172284</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5224421548959175</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.473249697067443</v>
+        <v>0.4653688647136481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5798999794273655</v>
+        <v>0.5793719177654957</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>516</v>
@@ -1921,19 +1921,19 @@
         <v>516848</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>484613</v>
+        <v>483371</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>551331</v>
+        <v>550261</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4138890815110018</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3880757105820788</v>
+        <v>0.3870811527632548</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4415028051512306</v>
+        <v>0.440646285181555</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>673</v>
@@ -1942,19 +1942,19 @@
         <v>672203</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>631218</v>
+        <v>635308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>707036</v>
+        <v>712041</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4347669175847585</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.408258282124543</v>
+        <v>0.4109042391277551</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4572960390861388</v>
+        <v>0.4605334818013982</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1982988</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1930186</v>
+        <v>1926943</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2040417</v>
+        <v>2038235</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6072219637103157</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5910529954993649</v>
+        <v>0.5900598639121205</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6248074579678877</v>
+        <v>0.6241392441277595</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2008</v>
@@ -2067,19 +2067,19 @@
         <v>2067307</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2012269</v>
+        <v>2010458</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2128434</v>
+        <v>2125221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6123268781876269</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5960250321609943</v>
+        <v>0.5954885054859719</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6304324652198474</v>
+        <v>0.6294808181808558</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3965</v>
@@ -2088,19 +2088,19 @@
         <v>4050295</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3972310</v>
+        <v>3969844</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4128529</v>
+        <v>4125420</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6098168770822526</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.598075362876029</v>
+        <v>0.5977039999578113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6215958467192984</v>
+        <v>0.621127710648257</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1282685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1225256</v>
+        <v>1227438</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1335487</v>
+        <v>1338730</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3927780362896843</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3751925420321122</v>
+        <v>0.3758607558722404</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.408947004500635</v>
+        <v>0.4099401360878778</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1286</v>
@@ -2138,19 +2138,19 @@
         <v>1308842</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1247715</v>
+        <v>1250928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1363880</v>
+        <v>1365691</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3876731218123731</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3695675347801526</v>
+        <v>0.3705191818191438</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4039749678390057</v>
+        <v>0.4045114945140281</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2532</v>
@@ -2159,19 +2159,19 @@
         <v>2591527</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2513293</v>
+        <v>2516402</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2669512</v>
+        <v>2671978</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3901831229177474</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3784041532807016</v>
+        <v>0.3788722893517428</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.401924637123971</v>
+        <v>0.4022960000421887</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>253846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>232374</v>
+        <v>233065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>276270</v>
+        <v>275080</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5831731232121613</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5338436728723349</v>
+        <v>0.5354327850960778</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6346889142524844</v>
+        <v>0.6319559975342067</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -2526,19 +2526,19 @@
         <v>191504</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>172282</v>
+        <v>172913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209389</v>
+        <v>208328</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6133199789353778</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5517596407033192</v>
+        <v>0.5537817096170107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6706011247133414</v>
+        <v>0.667202473028728</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>406</v>
@@ -2547,19 +2547,19 @@
         <v>445349</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>415681</v>
+        <v>419182</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>474123</v>
+        <v>472769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5957654558929154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5560772501504073</v>
+        <v>0.5607602553197807</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6342573991234209</v>
+        <v>0.6324465625370607</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>181438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159014</v>
+        <v>160204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202910</v>
+        <v>202219</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4168268767878387</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3653110857475159</v>
+        <v>0.3680440024657934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4661563271276651</v>
+        <v>0.4645672149039223</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>108</v>
@@ -2597,19 +2597,19 @@
         <v>120737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102852</v>
+        <v>103913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139959</v>
+        <v>139328</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3866800210646222</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3293988752866586</v>
+        <v>0.332797526971272</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4482403592966808</v>
+        <v>0.4462182903829894</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>277</v>
@@ -2618,19 +2618,19 @@
         <v>302175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>273401</v>
+        <v>274755</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>331843</v>
+        <v>328342</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4042345441070846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3657426008765791</v>
+        <v>0.3675534374629393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4439227498495927</v>
+        <v>0.4392397446802193</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>252801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>229154</v>
+        <v>231884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>273380</v>
+        <v>273288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6072315801151927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5504314085837984</v>
+        <v>0.5569886346085707</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6566623291916754</v>
+        <v>0.6564425068444609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>201</v>
@@ -2743,19 +2743,19 @@
         <v>222177</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>203922</v>
+        <v>204263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>239587</v>
+        <v>240036</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6627367871216254</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6082835150951093</v>
+        <v>0.6093018653252431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7146706815026611</v>
+        <v>0.7160103658002512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>426</v>
@@ -2764,19 +2764,19 @@
         <v>474977</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>447672</v>
+        <v>445138</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>503249</v>
+        <v>503414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.631990299644539</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5956583917021495</v>
+        <v>0.5922872370873186</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6696082252757396</v>
+        <v>0.669827295761356</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>163516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>142937</v>
+        <v>143029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>187163</v>
+        <v>184433</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3927684198848073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3433376708083245</v>
+        <v>0.3435574931555391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4495685914162016</v>
+        <v>0.4430113653914293</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>102</v>
@@ -2814,19 +2814,19 @@
         <v>113064</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>95654</v>
+        <v>95205</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>131319</v>
+        <v>130978</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3372632128783746</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2853293184973388</v>
+        <v>0.2839896341997488</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3917164849048904</v>
+        <v>0.3906981346747569</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>250</v>
@@ -2835,19 +2835,19 @@
         <v>276581</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>248309</v>
+        <v>248144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>303886</v>
+        <v>306420</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.368009700355461</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3303917747242605</v>
+        <v>0.3301727042386433</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4043416082978504</v>
+        <v>0.4077127629126812</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>384284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>359740</v>
+        <v>358606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>409091</v>
+        <v>411247</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6122855170388272</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5731790281232104</v>
+        <v>0.5713711874561409</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6518106266022203</v>
+        <v>0.6552457625610842</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -2960,19 +2960,19 @@
         <v>168336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152538</v>
+        <v>151530</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>183586</v>
+        <v>184360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6494638323526667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5885107987181529</v>
+        <v>0.5846235370945509</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7082981731198913</v>
+        <v>0.7112833194705408</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>517</v>
@@ -2981,19 +2981,19 @@
         <v>552620</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>523587</v>
+        <v>526318</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>583687</v>
+        <v>581654</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6231517564853989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5904129022097221</v>
+        <v>0.5934927247203265</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6581831944378292</v>
+        <v>0.6558915016367121</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>243339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>218532</v>
+        <v>216376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>267883</v>
+        <v>269017</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3877144829611728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3481893733977796</v>
+        <v>0.3447542374389158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4268209718767892</v>
+        <v>0.4286288125438587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -3031,19 +3031,19 @@
         <v>90857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75607</v>
+        <v>74833</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106655</v>
+        <v>107663</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3505361676473333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2917018268801088</v>
+        <v>0.2887166805294595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4114892012818473</v>
+        <v>0.4153764629054491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>315</v>
@@ -3052,19 +3052,19 @@
         <v>334195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>303128</v>
+        <v>305161</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>363228</v>
+        <v>360497</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3768482435146011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3418168055621708</v>
+        <v>0.3441084983632879</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4095870977902781</v>
+        <v>0.4065072752796735</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>738263</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>704127</v>
+        <v>700685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>771329</v>
+        <v>773206</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6423695916508365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6126674624717411</v>
+        <v>0.6096727690189516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6711403246565479</v>
+        <v>0.6727736027869692</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>493</v>
@@ -3177,19 +3177,19 @@
         <v>538175</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>511134</v>
+        <v>509763</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>563622</v>
+        <v>561088</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.705637316244488</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6701820635802787</v>
+        <v>0.6683843469028328</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7390016754742007</v>
+        <v>0.735679357418626</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1179</v>
@@ -3198,19 +3198,19 @@
         <v>1276438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1232811</v>
+        <v>1231497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1317309</v>
+        <v>1317145</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6676070461029265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6447889558101328</v>
+        <v>0.6441016640394129</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6889837947077428</v>
+        <v>0.6888977486501292</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>411018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>377952</v>
+        <v>376075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>445154</v>
+        <v>448596</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3576304083491634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.328859675343452</v>
+        <v>0.3272263972130308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3873325375282588</v>
+        <v>0.3903272309810484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>215</v>
@@ -3248,19 +3248,19 @@
         <v>224505</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>199058</v>
+        <v>201592</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>251546</v>
+        <v>252917</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2943626837555119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2609983245257994</v>
+        <v>0.264320642581374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3298179364197213</v>
+        <v>0.3316156530971673</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>602</v>
@@ -3269,19 +3269,19 @@
         <v>635522</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>594651</v>
+        <v>594815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>679149</v>
+        <v>680463</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3323929538970735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3110162052922571</v>
+        <v>0.311102251349871</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3552110441898669</v>
+        <v>0.355898335960587</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>340705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>318705</v>
+        <v>320030</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>359677</v>
+        <v>362214</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6739987269815895</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6304779131051604</v>
+        <v>0.6330977220996669</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7115308255403872</v>
+        <v>0.7165491278251523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>487</v>
@@ -3394,19 +3394,19 @@
         <v>531002</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>506697</v>
+        <v>503844</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>558859</v>
+        <v>555583</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7039241385986789</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6717031670804098</v>
+        <v>0.6679216354473135</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7408524603834864</v>
+        <v>0.7365091959417537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>810</v>
@@ -3415,19 +3415,19 @@
         <v>871707</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>835353</v>
+        <v>839530</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>902780</v>
+        <v>905894</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6919169141870783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6630610851015275</v>
+        <v>0.6663764497753166</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.716581447993781</v>
+        <v>0.7190528036603389</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>164793</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145821</v>
+        <v>143284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186793</v>
+        <v>185468</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3260012730184106</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2884691744596128</v>
+        <v>0.2834508721748477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3695220868948396</v>
+        <v>0.366902277900333</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -3465,19 +3465,19 @@
         <v>223344</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195487</v>
+        <v>198763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>247649</v>
+        <v>250502</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2960758614013211</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2591475396165135</v>
+        <v>0.2634908040582463</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3282968329195902</v>
+        <v>0.3320783645526864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>369</v>
@@ -3486,19 +3486,19 @@
         <v>388136</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357063</v>
+        <v>353949</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424490</v>
+        <v>420313</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3080830858129217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.283418552006219</v>
+        <v>0.2809471963396609</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3369389148984726</v>
+        <v>0.3336235502246833</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>138634</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122351</v>
+        <v>123107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156030</v>
+        <v>155198</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5194564888619705</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4584459913046656</v>
+        <v>0.4612781240238749</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5846410351616526</v>
+        <v>0.5815237054444011</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>664</v>
@@ -3611,19 +3611,19 @@
         <v>702241</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>668397</v>
+        <v>670358</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>735450</v>
+        <v>733277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6383402561027545</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6075759330200525</v>
+        <v>0.6093588793753636</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6685272722675819</v>
+        <v>0.6665521469945777</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>802</v>
@@ -3632,19 +3632,19 @@
         <v>840874</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>802822</v>
+        <v>799113</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>877427</v>
+        <v>876372</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6151301258344081</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5872935997541107</v>
+        <v>0.5845802183299642</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6418700049372635</v>
+        <v>0.6410978777029601</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>128248</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110852</v>
+        <v>111684</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>144531</v>
+        <v>143775</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4805435111380295</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4153589648383474</v>
+        <v>0.418476294555599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5415540086953343</v>
+        <v>0.5387218759761252</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>372</v>
@@ -3682,19 +3682,19 @@
         <v>397863</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>364654</v>
+        <v>366827</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>431707</v>
+        <v>429746</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3616597438972455</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.331472727732418</v>
+        <v>0.3334478530054223</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3924240669799475</v>
+        <v>0.3906411206246363</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>499</v>
@@ -3703,19 +3703,19 @@
         <v>526112</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>489559</v>
+        <v>490614</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>564164</v>
+        <v>567873</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3848698741655919</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3581299950627365</v>
+        <v>0.35890212229704</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4127064002458894</v>
+        <v>0.4154197816700359</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>2108532</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2046093</v>
+        <v>2045027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2166136</v>
+        <v>2168742</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6199953771662602</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.60163555163559</v>
+        <v>0.6013220695059219</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.636933143900354</v>
+        <v>0.6376994689853559</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2178</v>
@@ -3828,19 +3828,19 @@
         <v>2353434</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2291839</v>
+        <v>2295033</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2407024</v>
+        <v>2411605</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6678675909271878</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6503878434167334</v>
+        <v>0.651294176936585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6830755290476264</v>
+        <v>0.6843755639796483</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4140</v>
@@ -3849,19 +3849,19 @@
         <v>4461967</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4378375</v>
+        <v>4375999</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4545099</v>
+        <v>4540948</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6443563760395926</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6322847873477051</v>
+        <v>0.6319416656815732</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6563615725681707</v>
+        <v>0.6557621583845177</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1292352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1234748</v>
+        <v>1232142</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1354791</v>
+        <v>1355857</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3800046228337399</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.363066856099646</v>
+        <v>0.3623005310146441</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.39836444836441</v>
+        <v>0.3986779304940781</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1090</v>
@@ -3899,19 +3899,19 @@
         <v>1170370</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1116780</v>
+        <v>1112199</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1231965</v>
+        <v>1228771</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3321324090728122</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3169244709523732</v>
+        <v>0.3156244360203518</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3496121565832664</v>
+        <v>0.348705823063415</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2312</v>
@@ -3920,19 +3920,19 @@
         <v>2462721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2379589</v>
+        <v>2383740</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2546313</v>
+        <v>2548689</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3556436239604074</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3436384274318293</v>
+        <v>0.3442378416154823</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3677152126522949</v>
+        <v>0.3680583343184266</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>292020</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>269834</v>
+        <v>269203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>311698</v>
+        <v>311941</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6819270318593835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.630118218051958</v>
+        <v>0.6286463403871074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7278797844846256</v>
+        <v>0.7284486366907423</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>231</v>
@@ -4287,19 +4287,19 @@
         <v>242679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>223500</v>
+        <v>223157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>257745</v>
+        <v>257930</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7085774275934159</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6525776253036579</v>
+        <v>0.6515755584408152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.752566776614322</v>
+        <v>0.7531064835249103</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>502</v>
@@ -4308,19 +4308,19 @@
         <v>534699</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>507568</v>
+        <v>505968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>560824</v>
+        <v>560994</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6937698538915273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6585683351366806</v>
+        <v>0.6564918748094319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7276673349529332</v>
+        <v>0.727887680684189</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>136207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116529</v>
+        <v>116286</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158393</v>
+        <v>159024</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3180729681406165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2721202155153743</v>
+        <v>0.2715513633092576</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3698817819480416</v>
+        <v>0.3713536596128924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -4358,19 +4358,19 @@
         <v>99809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84743</v>
+        <v>84558</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118988</v>
+        <v>119331</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2914225724065841</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2474332233856781</v>
+        <v>0.2468935164750897</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.347422374696343</v>
+        <v>0.3484244415591848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>221</v>
@@ -4379,19 +4379,19 @@
         <v>236016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>209891</v>
+        <v>209721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263147</v>
+        <v>264747</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3062301461084727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2723326650470668</v>
+        <v>0.272112319315811</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3414316648633194</v>
+        <v>0.343508125190568</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>262030</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>242865</v>
+        <v>243849</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>279645</v>
+        <v>279947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6972038902161722</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6462094739294583</v>
+        <v>0.6488272455893165</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7440730256533664</v>
+        <v>0.7448755009172908</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>246</v>
@@ -4504,19 +4504,19 @@
         <v>258754</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>239633</v>
+        <v>238693</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>276360</v>
+        <v>276468</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7038235536946532</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6518156174337666</v>
+        <v>0.6492561893742502</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.751713174527069</v>
+        <v>0.7520084316003152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>492</v>
@@ -4525,19 +4525,19 @@
         <v>520784</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>495741</v>
+        <v>494012</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>546620</v>
+        <v>543526</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7004772605999912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6667941496282627</v>
+        <v>0.6644686362308179</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.73522758061959</v>
+        <v>0.7310662628629337</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>113800</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96185</v>
+        <v>95883</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>132965</v>
+        <v>131981</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3027961097838277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2559269743466336</v>
+        <v>0.2551244990827092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3537905260705418</v>
+        <v>0.3511727544106836</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>102</v>
@@ -4575,19 +4575,19 @@
         <v>108886</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91280</v>
+        <v>91172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>128007</v>
+        <v>128947</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2961764463053468</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.248286825472931</v>
+        <v>0.2479915683996848</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3481843825662334</v>
+        <v>0.3507438106257497</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>209</v>
@@ -4596,19 +4596,19 @@
         <v>222686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>196850</v>
+        <v>199944</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>247729</v>
+        <v>249458</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2995227394000089</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2647724193804099</v>
+        <v>0.2689337371370663</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3332058503717371</v>
+        <v>0.3355313637691821</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>398494</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>377235</v>
+        <v>377248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>417443</v>
+        <v>418042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7635249707002091</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7227918589044741</v>
+        <v>0.7228171187238071</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7998317816186491</v>
+        <v>0.8009779711407701</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -4721,19 +4721,19 @@
         <v>127996</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116821</v>
+        <v>116548</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138290</v>
+        <v>137611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7777237784336378</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7098229757739365</v>
+        <v>0.708164687612225</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8402683867047476</v>
+        <v>0.8361453672765383</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>499</v>
@@ -4742,19 +4742,19 @@
         <v>526491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>503707</v>
+        <v>503244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>548941</v>
+        <v>547294</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7669289683301623</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7337407385753413</v>
+        <v>0.7330656755766151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7996326714426474</v>
+        <v>0.7972322628260139</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>123420</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104471</v>
+        <v>103872</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144679</v>
+        <v>144666</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2364750292997909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.200168218381351</v>
+        <v>0.1990220288592299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2772081410955259</v>
+        <v>0.2771828812761929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -4792,19 +4792,19 @@
         <v>36582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26288</v>
+        <v>26967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47757</v>
+        <v>48030</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2222762215663622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1597316132952524</v>
+        <v>0.1638546327234617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2901770242260633</v>
+        <v>0.2918353123877749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>155</v>
@@ -4813,19 +4813,19 @@
         <v>160001</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137551</v>
+        <v>139198</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>182785</v>
+        <v>183248</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2330710316698377</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2003673285573526</v>
+        <v>0.202767737173986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2662592614246586</v>
+        <v>0.2669343244233846</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>857064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>823784</v>
+        <v>828220</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>884208</v>
+        <v>884293</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7520025208757785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.722802391931362</v>
+        <v>0.7266940015349074</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7758190696913259</v>
+        <v>0.7758940764882772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>597</v>
@@ -4938,19 +4938,19 @@
         <v>615721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>587699</v>
+        <v>592202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>641156</v>
+        <v>642393</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7481809297938</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7141303426375585</v>
+        <v>0.7196022113802147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7790885150096595</v>
+        <v>0.780591323879233</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1417</v>
@@ -4959,19 +4959,19 @@
         <v>1472785</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1435831</v>
+        <v>1434763</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1515173</v>
+        <v>1509591</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7504001064322645</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7315719306089042</v>
+        <v>0.731027666050192</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7719973199995663</v>
+        <v>0.7691532268376122</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>282645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>255501</v>
+        <v>255416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>315925</v>
+        <v>311489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2479974791242216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2241809303086744</v>
+        <v>0.2241059235117231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2771976080686381</v>
+        <v>0.2733059984650927</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>198</v>
@@ -5009,19 +5009,19 @@
         <v>207236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>181801</v>
+        <v>180564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>235258</v>
+        <v>230755</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2518190702061999</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2209114849903404</v>
+        <v>0.2194086761207664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2858696573624415</v>
+        <v>0.2803977886197851</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>472</v>
@@ -5030,19 +5030,19 @@
         <v>489881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>447493</v>
+        <v>453075</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>526835</v>
+        <v>527903</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2495998935677354</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2280026800004339</v>
+        <v>0.2308467731623876</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2684280693910959</v>
+        <v>0.268972333949808</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>481005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>459238</v>
+        <v>456619</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>500761</v>
+        <v>500333</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7776681436273679</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7424759175754445</v>
+        <v>0.7382415234848976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8096087277901639</v>
+        <v>0.8089178568048933</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>563</v>
@@ -5155,19 +5155,19 @@
         <v>597516</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>573842</v>
+        <v>575563</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>617700</v>
+        <v>616985</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8113629561300794</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7792163092524527</v>
+        <v>0.7815527313404103</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8387707252924187</v>
+        <v>0.8377999238311551</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1028</v>
@@ -5176,19 +5176,19 @@
         <v>1078522</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1048341</v>
+        <v>1047820</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1107765</v>
+        <v>1109634</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.79598166979156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7737073857403441</v>
+        <v>0.7733227466872882</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8175638041805166</v>
+        <v>0.8189435646090962</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>137517</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>117761</v>
+        <v>118189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>159284</v>
+        <v>161903</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.222331856372632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.190391272209836</v>
+        <v>0.1910821431951067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2575240824245554</v>
+        <v>0.2617584765151022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -5226,19 +5226,19 @@
         <v>138919</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118735</v>
+        <v>119450</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>162593</v>
+        <v>160872</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1886370438699206</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1612292747075814</v>
+        <v>0.1622000761688449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2207836907475471</v>
+        <v>0.2184472686595889</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>264</v>
@@ -5247,19 +5247,19 @@
         <v>276436</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>247193</v>
+        <v>245324</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>306617</v>
+        <v>307138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.20401833020844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1824361958194836</v>
+        <v>0.1810564353909038</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2262926142596559</v>
+        <v>0.226677253312712</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>200298</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>184529</v>
+        <v>185394</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>215562</v>
+        <v>216017</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.699867789547025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.644769965800853</v>
+        <v>0.6477904639385228</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7532017981764031</v>
+        <v>0.7547921597405014</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>753</v>
@@ -5372,19 +5372,19 @@
         <v>829324</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>801655</v>
+        <v>798979</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>857289</v>
+        <v>856942</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7687067769471252</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7430605851001728</v>
+        <v>0.7405794259697179</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7946281513687538</v>
+        <v>0.7943058474243869</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>942</v>
@@ -5393,19 +5393,19 @@
         <v>1029622</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>997325</v>
+        <v>996126</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1063184</v>
+        <v>1061002</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7542741273283843</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7306143170487496</v>
+        <v>0.7297361218881048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7788606186544553</v>
+        <v>0.7772624531896252</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>85896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70632</v>
+        <v>70177</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101665</v>
+        <v>100800</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.300132210452975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.246798201823597</v>
+        <v>0.2452078402594986</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3552300341991471</v>
+        <v>0.3522095360614771</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -5443,19 +5443,19 @@
         <v>249532</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221567</v>
+        <v>221914</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277201</v>
+        <v>279877</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2312932230528748</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2053718486312463</v>
+        <v>0.2056941525756131</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2569394148998272</v>
+        <v>0.2594205740302818</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>318</v>
@@ -5464,19 +5464,19 @@
         <v>335428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>301866</v>
+        <v>304048</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>367725</v>
+        <v>368924</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2457258726716157</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2211393813455445</v>
+        <v>0.2227375468103748</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2693856829512504</v>
+        <v>0.2702638781118952</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>2490911</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2440169</v>
+        <v>2437029</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2540150</v>
+        <v>2541436</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7390558704968885</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7240007235160478</v>
+        <v>0.7230688952131911</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7536650058590116</v>
+        <v>0.7540467720345869</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2507</v>
@@ -5589,19 +5589,19 @@
         <v>2671991</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2619799</v>
+        <v>2621860</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2723585</v>
+        <v>2718437</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7606105702519542</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7457537590162154</v>
+        <v>0.7463404055356715</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7752975639670869</v>
+        <v>0.7738320629485687</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4880</v>
@@ -5610,19 +5610,19 @@
         <v>5162902</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5092663</v>
+        <v>5087825</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5232817</v>
+        <v>5236180</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7500564263628244</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7398523570758608</v>
+        <v>0.7391494462614766</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7602135318963188</v>
+        <v>0.7607021419892452</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>879485</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>830246</v>
+        <v>828960</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>930227</v>
+        <v>933367</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2609441295031115</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.246334994140989</v>
+        <v>0.2459532279654131</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2759992764839523</v>
+        <v>0.276931104786809</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>802</v>
@@ -5660,19 +5660,19 @@
         <v>840964</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>789370</v>
+        <v>794518</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>893156</v>
+        <v>891095</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2393894297480458</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.224702436032913</v>
+        <v>0.2261679370514313</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2542462409837842</v>
+        <v>0.2536595944643283</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1639</v>
@@ -5681,19 +5681,19 @@
         <v>1720449</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1650534</v>
+        <v>1647171</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1790688</v>
+        <v>1795526</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2499435736371756</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.239786468103681</v>
+        <v>0.2392978580107548</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2601476429241388</v>
+        <v>0.2608505537385237</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>284315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>259354</v>
+        <v>260716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>307532</v>
+        <v>310478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5198797065534363</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4742368188683401</v>
+        <v>0.4767276949311136</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5623323651525232</v>
+        <v>0.56771800065921</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>320</v>
@@ -6048,19 +6048,19 @@
         <v>222914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>204297</v>
+        <v>203615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242915</v>
+        <v>243378</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4577030178024258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.419477416651789</v>
+        <v>0.4180756881941293</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4987695034443814</v>
+        <v>0.4997202856608253</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>614</v>
@@ -6069,19 +6069,19 @@
         <v>507230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>471861</v>
+        <v>476045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>537526</v>
+        <v>539943</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4905912336475191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4563827784796598</v>
+        <v>0.4604295877818829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5198935313489733</v>
+        <v>0.5222314215951698</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>262572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>239355</v>
+        <v>236409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287533</v>
+        <v>286171</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4801202934465638</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4376676348474768</v>
+        <v>0.4322819993407899</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5257631811316599</v>
+        <v>0.5232723050688863</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>364</v>
@@ -6119,19 +6119,19 @@
         <v>264114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>244113</v>
+        <v>243650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282731</v>
+        <v>283413</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5422969821975743</v>
+        <v>0.5422969821975742</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5012304965556186</v>
+        <v>0.5002797143391747</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5805225833482109</v>
+        <v>0.5819243118058711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>619</v>
@@ -6140,19 +6140,19 @@
         <v>526685</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>496389</v>
+        <v>493972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562054</v>
+        <v>557870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5094087663524809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4801064686510268</v>
+        <v>0.4777685784048301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5436172215203405</v>
+        <v>0.5395704122181172</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>276069</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>251693</v>
+        <v>253046</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>299700</v>
+        <v>297294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5759463660462666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5250926854187428</v>
+        <v>0.5279143293412806</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6252465854910287</v>
+        <v>0.6202262671904604</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>335</v>
@@ -6265,19 +6265,19 @@
         <v>234634</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>217033</v>
+        <v>216041</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>251577</v>
+        <v>251232</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5600723297437127</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5180581409629795</v>
+        <v>0.515689067567761</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6005149656803495</v>
+        <v>0.5996907232897867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>620</v>
@@ -6286,19 +6286,19 @@
         <v>510703</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>478948</v>
+        <v>484984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>538696</v>
+        <v>541606</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5685429879888165</v>
+        <v>0.5685429879888166</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.533190972386428</v>
+        <v>0.5399103397653547</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.599706211839211</v>
+        <v>0.6029449724497414</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>203262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>179631</v>
+        <v>182037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>227638</v>
+        <v>226285</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4240536339537335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.374753414508971</v>
+        <v>0.3797737328095396</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4749073145812572</v>
+        <v>0.4720856706587192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>249</v>
@@ -6336,19 +6336,19 @@
         <v>184302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>167359</v>
+        <v>167704</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201903</v>
+        <v>202895</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4399276702562873</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3994850343196504</v>
+        <v>0.4003092767102133</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4819418590370204</v>
+        <v>0.484310932432239</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>441</v>
@@ -6357,19 +6357,19 @@
         <v>387564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>359571</v>
+        <v>356661</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>419319</v>
+        <v>413283</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4314570120111835</v>
+        <v>0.4314570120111836</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.400293788160789</v>
+        <v>0.3970550275502588</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4668090276135721</v>
+        <v>0.4600896602346458</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>269685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246969</v>
+        <v>247335</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>292186</v>
+        <v>291770</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5759019798911305</v>
+        <v>0.5759019798911306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5273923040884326</v>
+        <v>0.5281739480518668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6239509616861759</v>
+        <v>0.623062542813834</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -6482,19 +6482,19 @@
         <v>105038</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93428</v>
+        <v>93241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115933</v>
+        <v>115883</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.565921161911884</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5033678920083943</v>
+        <v>0.5023611786313155</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6246237322881626</v>
+        <v>0.6243543543812168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>456</v>
@@ -6503,19 +6503,19 @@
         <v>374723</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>349665</v>
+        <v>350975</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>399041</v>
+        <v>401059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5730689454360958</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5347472463319184</v>
+        <v>0.5367509700857662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6102592941523005</v>
+        <v>0.6133443376766103</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>198598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>176097</v>
+        <v>176513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>221314</v>
+        <v>220948</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4240980201088694</v>
+        <v>0.4240980201088695</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3760490383138241</v>
+        <v>0.376937457186166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4726076959115675</v>
+        <v>0.4718260519481332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>119</v>
@@ -6553,19 +6553,19 @@
         <v>80567</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69672</v>
+        <v>69722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>92177</v>
+        <v>92364</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.434078838088116</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3753762677118377</v>
+        <v>0.3756456456187835</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.496632107991606</v>
+        <v>0.4976388213686846</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>314</v>
@@ -6574,19 +6574,19 @@
         <v>279165</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>254847</v>
+        <v>252829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>304223</v>
+        <v>302913</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.426931054563904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3897407058476994</v>
+        <v>0.3866556623233897</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4652527536680814</v>
+        <v>0.4632490299142338</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>666734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>628794</v>
+        <v>629602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>702745</v>
+        <v>702415</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5923451578531496</v>
+        <v>0.5923451578531497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5586382193318991</v>
+        <v>0.5593562856814658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.624338239166996</v>
+        <v>0.6240450671306609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>737</v>
@@ -6699,19 +6699,19 @@
         <v>493626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>466773</v>
+        <v>466200</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>518809</v>
+        <v>518338</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5778991319216389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5464623058107422</v>
+        <v>0.5457908877698495</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6073820620320362</v>
+        <v>0.6068305673473344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1428</v>
@@ -6720,19 +6720,19 @@
         <v>1160359</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1116011</v>
+        <v>1116354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1205308</v>
+        <v>1205150</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5861123697301333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5637112958423125</v>
+        <v>0.5638846837235804</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6088166225763633</v>
+        <v>0.6087364901449706</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>458850</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>422839</v>
+        <v>423169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>496790</v>
+        <v>495982</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4076548421468503</v>
+        <v>0.4076548421468504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3756617608330041</v>
+        <v>0.3759549328693392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4413617806681009</v>
+        <v>0.4406437143185342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>481</v>
@@ -6770,19 +6770,19 @@
         <v>360547</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>335364</v>
+        <v>335835</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>387400</v>
+        <v>387973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4221008680783611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3926179379679641</v>
+        <v>0.3931694326526656</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4535376941892582</v>
+        <v>0.4542091122301505</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>901</v>
@@ -6791,19 +6791,19 @@
         <v>819397</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>774448</v>
+        <v>774606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>863745</v>
+        <v>863402</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4138876302698666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.391183377423637</v>
+        <v>0.3912635098550295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4362887041576876</v>
+        <v>0.4361153162764195</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>361065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>334548</v>
+        <v>337184</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>387880</v>
+        <v>386016</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6448407256482187</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.597482659626381</v>
+        <v>0.6021914863522045</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6927312765906465</v>
+        <v>0.6894014760046629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>853</v>
@@ -6916,19 +6916,19 @@
         <v>538941</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>517216</v>
+        <v>514721</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>562205</v>
+        <v>562252</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6582979220157998</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6317610383258971</v>
+        <v>0.628713848264587</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6867139751302571</v>
+        <v>0.6867711740216969</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1218</v>
@@ -6937,19 +6937,19 @@
         <v>900006</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>866249</v>
+        <v>863574</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>933709</v>
+        <v>931112</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6528322478316491</v>
+        <v>0.6528322478316489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6283455761381282</v>
+        <v>0.6264053490323958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6772791122697371</v>
+        <v>0.6753949489419928</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>198864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172049</v>
+        <v>173913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>225381</v>
+        <v>222745</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3551592743517814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3072687234093538</v>
+        <v>0.310598523995337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4025173403736192</v>
+        <v>0.3978085136477952</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>417</v>
@@ -6987,19 +6987,19 @@
         <v>279748</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>256484</v>
+        <v>256437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>301473</v>
+        <v>303968</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3417020779842001</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3132860248697427</v>
+        <v>0.313228825978303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3682389616741029</v>
+        <v>0.371286151735413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>592</v>
@@ -7008,19 +7008,19 @@
         <v>478612</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>444909</v>
+        <v>447506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>512369</v>
+        <v>515044</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3471677521683512</v>
+        <v>0.3471677521683511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3227208877302629</v>
+        <v>0.3246050510580071</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3716544238618719</v>
+        <v>0.3735946509676042</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>91298</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67666</v>
+        <v>67786</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>114844</v>
+        <v>114653</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.389293078933885</v>
+        <v>0.3892930789338851</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2885263039031582</v>
+        <v>0.2890388602981471</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4896958442145024</v>
+        <v>0.4888792135168893</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>727</v>
@@ -7133,19 +7133,19 @@
         <v>501275</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>471421</v>
+        <v>470684</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>527876</v>
+        <v>527718</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5989874609256963</v>
+        <v>0.5989874609256964</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5633135397891279</v>
+        <v>0.562432768046643</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.630772989677938</v>
+        <v>0.6305845240860122</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>776</v>
@@ -7154,19 +7154,19 @@
         <v>592573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>555439</v>
+        <v>554196</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>631871</v>
+        <v>629684</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5530865854637043</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5184273873620862</v>
+        <v>0.5172664434078477</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5897654002091114</v>
+        <v>0.5877244164090367</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>143224</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119678</v>
+        <v>119869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166856</v>
+        <v>166736</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6107069210661151</v>
+        <v>0.610706921066115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5103041557854974</v>
+        <v>0.5111207864831109</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7114736960968413</v>
+        <v>0.7109611397018528</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>420</v>
@@ -7204,19 +7204,19 @@
         <v>335596</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>308995</v>
+        <v>309153</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>365450</v>
+        <v>366187</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4010125390743038</v>
+        <v>0.4010125390743037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.369227010322062</v>
+        <v>0.3694154759139879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4366864602108722</v>
+        <v>0.4375672319533569</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>481</v>
@@ -7225,19 +7225,19 @@
         <v>478820</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>439522</v>
+        <v>441709</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>515954</v>
+        <v>517197</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4469134145362957</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4102345997908887</v>
+        <v>0.4122755835909633</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4815726126379137</v>
+        <v>0.4827335565921525</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1949166</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1889572</v>
+        <v>1882923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2023650</v>
+        <v>2014749</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5708437795311249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5533907052020178</v>
+        <v>0.5514434181659541</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5926575458904291</v>
+        <v>0.5900508322172419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3139</v>
@@ -7350,19 +7350,19 @@
         <v>2096429</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2041267</v>
+        <v>2043286</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2145592</v>
+        <v>2149809</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5821307895367074</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.566813547918543</v>
+        <v>0.5673743036830505</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.595782321408076</v>
+        <v>0.5969533398580557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5112</v>
@@ -7371,19 +7371,19 @@
         <v>4045595</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3956738</v>
+        <v>3965752</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4127190</v>
+        <v>4136031</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5766375188435876</v>
+        <v>0.5766375188435875</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5639723809618311</v>
+        <v>0.5652572124726509</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5882676392542221</v>
+        <v>0.5895278480783216</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1465369</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1390885</v>
+        <v>1399786</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1524963</v>
+        <v>1531612</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4291562204688752</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4073424541095711</v>
+        <v>0.4099491677827583</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4466092947979822</v>
+        <v>0.448556581834046</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2050</v>
@@ -7421,19 +7421,19 @@
         <v>1504873</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1455710</v>
+        <v>1451493</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1560035</v>
+        <v>1558016</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4178692104632925</v>
+        <v>0.4178692104632926</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4042176785919239</v>
+        <v>0.4030466601419446</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4331864520814563</v>
+        <v>0.4326256963169497</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3348</v>
@@ -7442,19 +7442,19 @@
         <v>2970242</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2888647</v>
+        <v>2879806</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3059099</v>
+        <v>3050085</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4233624811564126</v>
+        <v>0.4233624811564125</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4117323607457782</v>
+        <v>0.4104721519216784</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.436027619038169</v>
+        <v>0.4347427875273494</v>
       </c>
     </row>
     <row r="24">
